--- a/pred_ohlcv/54_21/2020-01-16 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-74388.18179999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-75460.97249999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-74573.74939999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-74573.74939999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-73540.40259999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-70666.23629999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-71245.42699999998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-83365.54269999998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-82956.51029999998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-86013.28809999998</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-86405.28799999997</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-101944.9831</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-102106.9831</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-105845.7688</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-105693.1230723309</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-108037.7216723309</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-108140.7204723309</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-108074.2930723309</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-108187.2930723309</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-104092.2930723309</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-103979.2930723309</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-106562.6135723309</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-176983.3143723308</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-181846.8393723308</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-180866.8356723308</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-180616.8356723308</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-185641.5674723308</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-185617.5674723308</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-185561.5674723308</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-185172.4507723308</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-207832.6567598078</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-207810.0798598078</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-207938.8215598078</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-207953.0415598078</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-211424.5833598078</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-210648.6377598078</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-222805.2650624829</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-223025.1001624828</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-229314.1001624828</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-228205.1001624828</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-231721.0565624828</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-231592.0058624829</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-233251.8585624828</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-232936.8111624828</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-232757.2777624828</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-232511.2567624828</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-232272.3971097908</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-232272.3971097908</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-232321.2814097908</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-232323.2045097908</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-232177.4898097908</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-232073.7140097908</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-262057.2933097908</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-260955.2933097908</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-258630.5368097909</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-258943.5513097908</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-257969.5513097908</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-248146.9940097908</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-278146.9940097908</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-298146.9940097908</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-293203.5793097908</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-293609.5791097908</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-293203.5792097908</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-292644.0770097908</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-278638.7579097908</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-278636.7579097908</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-278634.7579097908</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-282028.2811097908</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-282026.2811097908</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-286071.0389097909</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-286069.0389097909</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-296754.9557097909</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-306726.9181097909</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-306726.9181097909</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-335240.3792097909</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-341120.4799097909</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-332944.2180097909</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-333368.5932097909</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-74388.18179999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-71245.42699999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-83365.54269999998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-82956.51029999998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-86013.28809999998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-86405.28799999997</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-86172.94119999997</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-105845.7688</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-105693.1230723309</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-108037.7216723309</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-108140.7204723309</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-108074.2930723309</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-108187.2930723309</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-104092.2930723309</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-103979.2930723309</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-106562.6135723309</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-185172.4507723308</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-198697.2742598078</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-200985.8442598078</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-207840.8442598078</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-207837.8344598078</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-207837.8344598078</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-207832.6567598078</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-207810.0798598078</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-207810.0798598078</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-207938.8215598078</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-207953.0415598078</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-207950.9417598078</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-211424.5833598078</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-210648.6377598078</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-210630.2283341819</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-211057.137334182</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-216148.424134182</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-218277.8477275399</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-218277.8477275399</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-218241.8477275399</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-222879.2564275399</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-222781.2564275399</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-226391.3726275399</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-224301.9675275399</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-223124.9675275399</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-222986.1079624828</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-222986.1079624828</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-222363.2650624829</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-222363.2650624829</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-222805.2650624829</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-223683.2650624829</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-222140.0001624828</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-222125.0001624828</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-223011.0001624828</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-223025.1001624828</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-229314.1001624828</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-228205.1001624828</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-227567.8053624828</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-227553.8053624828</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-225365.7835624829</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-231723.0565624828</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-231721.0565624828</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-231761.0565624828</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-231592.0058624829</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-233251.8585624828</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-232936.8111624828</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-232757.2777624828</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-232511.2567624828</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-232272.3971097908</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-232272.3971097908</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-232321.2814097908</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-232323.2045097908</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-232177.4898097908</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-232073.7140097908</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-262057.2933097908</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-260955.2933097908</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-258630.5368097909</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-258943.5513097908</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-257969.5513097908</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-248146.9940097908</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-278146.9940097908</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-298146.9940097908</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-293203.5793097908</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-293609.5791097908</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-293203.5792097908</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-292644.0770097908</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-278638.7579097908</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-278636.7579097908</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-278634.7579097908</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-282028.2811097908</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-282026.2811097908</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-286071.0389097909</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-286069.0389097909</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-296754.9557097909</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-306726.9181097909</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-306726.9181097909</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-341120.4799097909</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-332940.2180097909</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-332938.2180097909</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-333368.5932097909</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
